--- a/144F20/Topic 1/test.xlsx
+++ b/144F20/Topic 1/test.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/144/Math144/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{39F9B278-3982-43B0-8B83-FE953A966A35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05A42D62-BD88-4211-B271-7AF946AE8BE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4605" yWindow="1395" windowWidth="22395" windowHeight="14070" xr2:uid="{B059B3D9-69CB-43B5-B54F-5056016079A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
@@ -280,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection hidden="1"/>
@@ -289,72 +289,69 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -396,9 +393,120 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55FDE63B-8226-47BB-8F40-E262B61FAC67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1838325" y="581025"/>
+          <a:ext cx="304800" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0683E020-42F5-44DF-81E6-D61AA78EAF17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1724025" y="800100"/>
+          <a:ext cx="285750" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{C55E4466-AF98-4432-A66A-099A2891A6D2}">
-  <header guid="{C55E4466-AF98-4432-A66A-099A2891A6D2}" dateTime="2021-09-20T13:56:43" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{B83C9D2D-0205-439F-9967-8F6880FE8744}">
+  <header guid="{B83C9D2D-0205-439F-9967-8F6880FE8744}" dateTime="2021-10-14T10:09:48" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -413,7 +521,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{C55E4466-AF98-4432-A66A-099A2891A6D2}" name="Richard Ketchersid" id="-1739556249" dateTime="2021-09-20T13:56:43"/>
+  <userInfo guid="{B83C9D2D-0205-439F-9967-8F6880FE8744}" name="Richard Ketchersid" id="-1739561182" dateTime="2021-10-25T14:06:52"/>
 </users>
 </file>
 
@@ -717,7 +825,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,52 +835,52 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="4"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="19"/>
-      <c r="E3" s="8" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="4"/>
+      <c r="E3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="4"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="2" t="str">
         <f ca="1">INFO("RELEASE")</f>
         <v>16.0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="2" t="str">
         <f ca="1">INFO("SYSTEM")</f>
         <v>pcdos</v>
@@ -780,32 +888,32 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="str">
+      <c r="B9" s="5" t="str">
         <f ca="1">Sheet1!A2</f>
         <v>Your system looks good!</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="J11" s="7"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="J11" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Vtrv75ZpZvl5jofCXaj9bv4WORkL57R8ye16DMCGp1ns+3F5V7xbk4o1/1jE70YF9ikaNcdUSZDVbuv7csWrtA==" saltValue="dFtPihHQ5kYMhVJTWLzuww==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="q/+CpZBGUPXBa0qtuIvPRAlJjjlCZfZ59T67KgUmiVdHs8Va3Hr0fRifxcBfah91nlRBgpfoTDzBAmYsPZargg==" saltValue="lRoaB4T/8RqbYGaLfi1l1w==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
     <customSheetView guid="{BEACEF35-7F15-4A23-9541-5B70EC08CBDC}">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -822,6 +930,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -876,7 +985,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{BEACEF35-7F15-4A23-9541-5B70EC08CBDC}">
+    <customSheetView guid="{BEACEF35-7F15-4A23-9541-5B70EC08CBDC}" state="hidden">
       <selection activeCell="A3" sqref="A3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>

--- a/144F20/Topic 1/test.xlsx
+++ b/144F20/Topic 1/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05A42D62-BD88-4211-B271-7AF946AE8BE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="14_{5F5EBD08-3467-46B8-89E6-E688C6430526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12A7878D-B456-4FBC-AA76-83C16E04A7B0}"/>
   <bookViews>
-    <workbookView xWindow="4605" yWindow="1395" windowWidth="22395" windowHeight="14070" xr2:uid="{B059B3D9-69CB-43B5-B54F-5056016079A7}"/>
+    <workbookView xWindow="312" yWindow="312" windowWidth="17280" windowHeight="9204" xr2:uid="{B059B3D9-69CB-43B5-B54F-5056016079A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{BEACEF35-7F15-4A23-9541-5B70EC08CBDC}" mergeInterval="0" personalView="1" xWindow="307" yWindow="93" windowWidth="1493" windowHeight="938" activeSheetId="1"/>
+    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{BEACEF35-7F15-4A23-9541-5B70EC08CBDC}" mergeInterval="0" personalView="1" xWindow="26" yWindow="26" windowWidth="1440" windowHeight="767" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Enter your name:</t>
   </si>
@@ -51,14 +51,43 @@
     <t>System:</t>
   </si>
   <si>
-    <t xml:space="preserve">Just type in by hand the number from D6 and D7 into C3 and C4. </t>
+    <t>Do you use a Chromebook:</t>
+  </si>
+  <si>
+    <t>If you answered yes, just stop and submit this as is. Make sure that you are using Excel at Office.com and that you are logging into office.com with your GCU username/password.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Just type in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>by hand</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the number from D6 and D7 into C3 and C4. </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +107,14 @@
       <b/>
       <sz val="14"/>
       <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -119,7 +156,7 @@
       </gradientFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -276,11 +313,125 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection hidden="1"/>
@@ -295,6 +446,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -331,11 +497,27 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
       <protection hidden="1"/>
     </xf>
@@ -354,6 +536,42 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -397,15 +615,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -450,15 +668,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -505,8 +723,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{B83C9D2D-0205-439F-9967-8F6880FE8744}">
-  <header guid="{B83C9D2D-0205-439F-9967-8F6880FE8744}" dateTime="2021-10-14T10:09:48" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0EF9C3E4-812D-4503-859A-76D0A53D7DE2}">
+  <header guid="{0EF9C3E4-812D-4503-859A-76D0A53D7DE2}" dateTime="2023-08-25T10:09:42" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -521,7 +739,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{B83C9D2D-0205-439F-9967-8F6880FE8744}" name="Richard Ketchersid" id="-1739561182" dateTime="2021-10-25T14:06:52"/>
+  <userInfo guid="{0EF9C3E4-812D-4503-859A-76D0A53D7DE2}" name="Richard Ketchersid" id="-1739547768" dateTime="2023-08-25T10:09:42"/>
 </users>
 </file>
 
@@ -822,111 +1040,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D901B55-C332-4E60-AE58-35F37C520F6E}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="B1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="1.77734375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="30"/>
+    </row>
+    <row r="4" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="33"/>
+    </row>
+    <row r="5" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="36"/>
+    </row>
+    <row r="6" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="4"/>
-      <c r="E3" s="14" t="s">
-        <v>4</v>
+      <c r="C7" s="25"/>
+      <c r="D7" s="4"/>
+      <c r="F7" s="18" t="s">
+        <v>6</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="20"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+    <row r="8" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="4"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="4"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="23"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C10" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="2" t="str">
+      <c r="D10" s="24"/>
+      <c r="E10" s="2" t="str">
         <f ca="1">INFO("RELEASE")</f>
         <v>16.0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C11" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="2" t="str">
+      <c r="D11" s="24"/>
+      <c r="E11" s="2" t="str">
         <f ca="1">INFO("SYSTEM")</f>
         <v>pcdos</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="str">
+    <row r="12" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C13" s="9" t="str">
         <f ca="1">Sheet1!A2</f>
         <v>Your system looks good!</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-      <c r="J11" s="3"/>
+    <row r="15" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
+      <c r="K15" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="q/+CpZBGUPXBa0qtuIvPRAlJjjlCZfZ59T67KgUmiVdHs8Va3Hr0fRifxcBfah91nlRBgpfoTDzBAmYsPZargg==" saltValue="lRoaB4T/8RqbYGaLfi1l1w==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8vSYk10RVPj7qeibvvBCnPTE9460swx1EzVe7Rr1T75Ax/JwYorCqtw75LjiXwpgN9fG+GdaDKCPVEMyMMuq3Q==" saltValue="YNSl5lvMOH50IV65L6VQvw==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
     <customSheetView guid="{BEACEF35-7F15-4A23-9541-5B70EC08CBDC}">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="K13" sqref="K13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="8">
-    <mergeCell ref="B9:E11"/>
-    <mergeCell ref="E3:H4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A3:B3"/>
+  <mergeCells count="10">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="C13:F15"/>
+    <mergeCell ref="F7:I8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="C10:D10"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="F3:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -953,7 +1207,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B9:E11</xm:sqref>
+          <xm:sqref>C13:F15</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -969,15 +1223,15 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="b">
-        <f ca="1">OR(ISERR(Test!$D$6),ISERR(Test!$D$7),Test!$D$6&lt;16)</f>
+        <f ca="1">OR(ISERR(Test!$E$10),ISERR(Test!$E$11),Test!$E$10&lt;16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f ca="1">IF(A1,"You are not using current Excel from MS Office 365 or you are using a Chromebook.","Your system looks good!")</f>
         <v>Your system looks good!</v>
@@ -995,24 +1249,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002FC4D7A32A34E94B953742578E0D227D" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74d5d433463613ed438f5c69d02acddb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="d8c16f6f-632d-4fa9-9000-4a0cb55aa11b" xmlns:ns4="6588c10b-b5ed-4e95-9d69-08b9b2ce7055" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="236836fe325cd702c7dfc1167bee4fca" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1258,25 +1494,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C190D257-67B2-4C8E-9431-FB056E46BA28}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A476A232-D581-47C7-B641-3FE381C85E25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5525EBA8-3762-4CFA-BB48-9EDB60D566EC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1294,4 +1530,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A476A232-D581-47C7-B641-3FE381C85E25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C190D257-67B2-4C8E-9431-FB056E46BA28}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/144F20/Topic 1/test.xlsx
+++ b/144F20/Topic 1/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="14_{5F5EBD08-3467-46B8-89E6-E688C6430526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12A7878D-B456-4FBC-AA76-83C16E04A7B0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{86EF1C24-D0FB-4491-83C4-CA278CDE7181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="312" yWindow="312" windowWidth="17280" windowHeight="9204" xr2:uid="{B059B3D9-69CB-43B5-B54F-5056016079A7}"/>
   </bookViews>
@@ -446,9 +446,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" indent="1"/>
       <protection hidden="1"/>
@@ -572,6 +569,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -723,8 +723,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0EF9C3E4-812D-4503-859A-76D0A53D7DE2}">
-  <header guid="{0EF9C3E4-812D-4503-859A-76D0A53D7DE2}" dateTime="2023-08-25T10:09:42" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{FCD0E860-103E-44EE-9CC9-D4C75DCD5833}">
+  <header guid="{FCD0E860-103E-44EE-9CC9-D4C75DCD5833}" dateTime="2023-08-31T17:17:20" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -739,7 +739,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{0EF9C3E4-812D-4503-859A-76D0A53D7DE2}" name="Richard Ketchersid" id="-1739547768" dateTime="2023-08-25T10:09:42"/>
+  <userInfo guid="{FCD0E860-103E-44EE-9CC9-D4C75DCD5833}" name="Richard Ketchersid" id="-1739563332" dateTime="2023-08-31T17:17:20"/>
 </users>
 </file>
 
@@ -1043,7 +1043,7 @@
   <dimension ref="B1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1054,85 +1054,85 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="30"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="29"/>
     </row>
     <row r="4" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="33"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="32"/>
     </row>
     <row r="5" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F5" s="34"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="36"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="35"/>
     </row>
     <row r="6" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="4"/>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="20"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19"/>
     </row>
     <row r="8" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="25"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="4"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="23"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="24"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="2" t="str">
         <f ca="1">INFO("RELEASE")</f>
         <v>16.0</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="24"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="2" t="str">
         <f ca="1">INFO("SYSTEM")</f>
         <v>pcdos</v>
@@ -1140,32 +1140,32 @@
     </row>
     <row r="12" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C13" s="9" t="str">
+      <c r="C13" s="8" t="str">
         <f ca="1">Sheet1!A2</f>
         <v>Your system looks good!</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
     </row>
     <row r="15" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
       <c r="K15" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8vSYk10RVPj7qeibvvBCnPTE9460swx1EzVe7Rr1T75Ax/JwYorCqtw75LjiXwpgN9fG+GdaDKCPVEMyMMuq3Q==" saltValue="YNSl5lvMOH50IV65L6VQvw==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FHNmH3TpI5fEXQG6gBmhVfVTsmOnzO8cdf5CU60oQsuyDqxVY3B+nPO2exGiworh1FMQUCM3D0ZbgObpGcMHYQ==" saltValue="kH9Qg9kWU7NfFMll2wo9sg==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
     <customSheetView guid="{BEACEF35-7F15-4A23-9541-5B70EC08CBDC}">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="D7" sqref="D7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -1249,6 +1249,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002FC4D7A32A34E94B953742578E0D227D" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74d5d433463613ed438f5c69d02acddb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="d8c16f6f-632d-4fa9-9000-4a0cb55aa11b" xmlns:ns4="6588c10b-b5ed-4e95-9d69-08b9b2ce7055" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="236836fe325cd702c7dfc1167bee4fca" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1494,25 +1512,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C190D257-67B2-4C8E-9431-FB056E46BA28}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A476A232-D581-47C7-B641-3FE381C85E25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5525EBA8-3762-4CFA-BB48-9EDB60D566EC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1530,22 +1548,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A476A232-D581-47C7-B641-3FE381C85E25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C190D257-67B2-4C8E-9431-FB056E46BA28}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/144F20/Topic 1/test.xlsx
+++ b/144F20/Topic 1/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{86EF1C24-D0FB-4491-83C4-CA278CDE7181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{C1963559-702E-48FB-8794-8E8EECCF3F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="312" yWindow="312" windowWidth="17280" windowHeight="9204" xr2:uid="{B059B3D9-69CB-43B5-B54F-5056016079A7}"/>
+    <workbookView xWindow="312" yWindow="312" windowWidth="20196" windowHeight="10680" xr2:uid="{B059B3D9-69CB-43B5-B54F-5056016079A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{BEACEF35-7F15-4A23-9541-5B70EC08CBDC}" mergeInterval="0" personalView="1" xWindow="26" yWindow="26" windowWidth="1440" windowHeight="767" activeSheetId="1"/>
+    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{BEACEF35-7F15-4A23-9541-5B70EC08CBDC}" mergeInterval="0" personalView="1" xWindow="26" yWindow="26" windowWidth="1683" windowHeight="890" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,11 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
-  <si>
-    <t>Enter your name:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Copy Excel Version:</t>
   </si>
@@ -51,10 +70,13 @@
     <t>System:</t>
   </si>
   <si>
-    <t>Do you use a Chromebook:</t>
+    <t>Data 1</t>
   </si>
   <si>
-    <t>If you answered yes, just stop and submit this as is. Make sure that you are using Excel at Office.com and that you are logging into office.com with your GCU username/password.</t>
+    <t>Data 2</t>
+  </si>
+  <si>
+    <t>Sum</t>
   </si>
   <si>
     <r>
@@ -79,7 +101,33 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> the number from D6 and D7 into C3 and C4. </t>
+      <t xml:space="preserve"> the numbers from E5 and E6 into D2 and D3. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If you see the following, your system is probably ok. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>If not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, then you are not using Excel, or not using the Excel provided by GCU, or not logged in using your GCU credentials. Check File → Account.</t>
     </r>
   </si>
 </sst>
@@ -87,7 +135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,14 +153,6 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="9" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -120,7 +160,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,18 +185,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <gradientFill degree="135">
-        <stop position="0">
-          <color theme="8" tint="0.59999389629810485"/>
-        </stop>
-        <stop position="1">
-          <color theme="9" tint="0.59999389629810485"/>
-        </stop>
-      </gradientFill>
-    </fill>
   </fills>
-  <borders count="22">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -165,19 +195,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -304,8 +321,55 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -314,8 +378,126 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -325,104 +507,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -431,108 +525,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <alignment horizontal="left" indent="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
@@ -546,14 +585,14 @@
       <alignment horizontal="left" wrapText="1" indent="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
       <protection hidden="1"/>
@@ -566,34 +605,59 @@
       <alignment horizontal="left" wrapText="1" indent="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <gradientFill degree="315">
-          <stop position="0">
-            <color theme="5" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="7" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -617,13 +681,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -670,13 +734,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -719,28 +783,114 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>425536</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>17842</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{253D0421-45EA-C92D-512A-F51027143109}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3863340" y="1973580"/>
+          <a:ext cx="1682836" cy="1206562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>93367</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>107833</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>71884</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>140434</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Arrow: Left-Right 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06939214-ED8B-F13E-1A54-0A5F2B230553}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1460068">
+          <a:off x="2089807" y="2165233"/>
+          <a:ext cx="1853037" cy="215481"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Are these the same?</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{FCD0E860-103E-44EE-9CC9-D4C75DCD5833}">
-  <header guid="{FCD0E860-103E-44EE-9CC9-D4C75DCD5833}" dateTime="2023-08-31T17:17:20" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-</headers>
-</file>
-
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
-</file>
-
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{FCD0E860-103E-44EE-9CC9-D4C75DCD5833}" name="Richard Ketchersid" id="-1739563332" dateTime="2023-08-31T17:17:20"/>
-</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1040,10 +1190,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D901B55-C332-4E60-AE58-35F37C520F6E}">
-  <dimension ref="B1:K15"/>
+  <dimension ref="B1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1052,117 +1202,155 @@
     <col min="2" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
+    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="3"/>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F3" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="29"/>
+    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="3"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="32"/>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="2" t="str">
+        <f ca="1">INFO("RELEASE")</f>
+        <v>16.0</v>
+      </c>
     </row>
-    <row r="5" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F5" s="33"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="35"/>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="2" t="str">
+        <f ca="1">INFO("SYSTEM")</f>
+        <v>pcdos</v>
+      </c>
     </row>
-    <row r="6" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="4"/>
-      <c r="F7" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="19"/>
-    </row>
-    <row r="8" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="4"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="22"/>
+      <c r="C8" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="14"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C10" s="23" t="s">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="26">
+        <v>1</v>
+      </c>
+      <c r="C9" s="22">
+        <v>6</v>
+      </c>
+      <c r="D9" s="27" cm="1">
+        <f t="array" ref="D9:D14">B9:B14+C9:C14</f>
+        <v>7</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="28">
         <v>2</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="2" t="str">
-        <f ca="1">INFO("RELEASE")</f>
-        <v>16.0</v>
-      </c>
+      <c r="C10" s="21">
+        <v>5</v>
+      </c>
+      <c r="D10" s="29">
+        <v>7</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="20"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C11" s="23" t="s">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="28">
         <v>3</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="2" t="str">
-        <f ca="1">INFO("SYSTEM")</f>
-        <v>pcdos</v>
+      <c r="C11" s="21">
+        <v>4</v>
+      </c>
+      <c r="D11" s="29">
+        <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C13" s="8" t="str">
-        <f ca="1">Sheet1!A2</f>
-        <v>Your system looks good!</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10"/>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="28">
+        <v>4</v>
+      </c>
+      <c r="C12" s="21">
+        <v>3</v>
+      </c>
+      <c r="D12" s="29">
+        <v>7</v>
+      </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="28">
+        <v>5</v>
+      </c>
+      <c r="C13" s="21">
+        <v>2</v>
+      </c>
+      <c r="D13" s="29">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-      <c r="K15" s="3"/>
+    <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="30">
+        <v>6</v>
+      </c>
+      <c r="C14" s="31">
+        <v>1</v>
+      </c>
+      <c r="D14" s="32">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FHNmH3TpI5fEXQG6gBmhVfVTsmOnzO8cdf5CU60oQsuyDqxVY3B+nPO2exGiworh1FMQUCM3D0ZbgObpGcMHYQ==" saltValue="kH9Qg9kWU7NfFMll2wo9sg==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ip6aNTuoDnQlaAaOUCkzALjgfDv3qFn/3GKtH1/0F6PHRf+WRD9/j/H6C5Yxiu9jLdHTa8uOe9wLp1/Ev3UI8A==" saltValue="2zoCUdvQA998gFfefaiVmQ==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
     <customSheetView guid="{BEACEF35-7F15-4A23-9541-5B70EC08CBDC}">
       <selection activeCell="D7" sqref="D7"/>
@@ -1170,48 +1358,17 @@
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="10">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="C13:F15"/>
-    <mergeCell ref="F7:I8"/>
+  <mergeCells count="6">
+    <mergeCell ref="F2:I3"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="F3:K5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F8:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{DC8FBD7C-464C-43E1-ABFC-0F37F779B90B}">
-            <xm:f>Sheet1!$A$1</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFFF0000"/>
-              </font>
-              <fill>
-                <gradientFill degree="315">
-                  <stop position="0">
-                    <color theme="5" tint="0.40000610370189521"/>
-                  </stop>
-                  <stop position="1">
-                    <color theme="7" tint="0.40000610370189521"/>
-                  </stop>
-                </gradientFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C13:F15</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1227,7 +1384,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="b">
-        <f ca="1">OR(ISERR(Test!$E$10),ISERR(Test!$E$11),Test!$E$10&lt;16)</f>
+        <f ca="1">OR(ISERR(Test!$E$5),ISERR(Test!$E$6),Test!$E$5&lt;16)</f>
         <v>0</v>
       </c>
     </row>
@@ -1249,24 +1406,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002FC4D7A32A34E94B953742578E0D227D" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74d5d433463613ed438f5c69d02acddb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="d8c16f6f-632d-4fa9-9000-4a0cb55aa11b" xmlns:ns4="6588c10b-b5ed-4e95-9d69-08b9b2ce7055" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="236836fe325cd702c7dfc1167bee4fca" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1512,25 +1651,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C190D257-67B2-4C8E-9431-FB056E46BA28}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A476A232-D581-47C7-B641-3FE381C85E25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5525EBA8-3762-4CFA-BB48-9EDB60D566EC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1548,4 +1687,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A476A232-D581-47C7-B641-3FE381C85E25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C190D257-67B2-4C8E-9431-FB056E46BA28}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/144F20/Topic 1/test.xlsx
+++ b/144F20/Topic 1/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{C1963559-702E-48FB-8794-8E8EECCF3F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="10_ncr:80_{C1963559-702E-48FB-8794-8E8EECCF3F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0476510D-3FB8-4C57-9F42-54664F1C3AA6}"/>
   <bookViews>
-    <workbookView xWindow="312" yWindow="312" windowWidth="20196" windowHeight="10680" xr2:uid="{B059B3D9-69CB-43B5-B54F-5056016079A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B059B3D9-69CB-43B5-B54F-5056016079A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Copy Excel Version:</t>
   </si>
@@ -130,12 +130,46 @@
       <t>, then you are not using Excel, or not using the Excel provided by GCU, or not logged in using your GCU credentials. Check File → Account.</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Watch this </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>video</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on what is required in terms of technology.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +189,23 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -522,10 +573,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection hidden="1"/>
@@ -537,6 +589,54 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
       <protection hidden="1"/>
@@ -605,56 +705,33 @@
       <alignment horizontal="left" wrapText="1" indent="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -827,16 +904,96 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3337560" cy="609013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8925D946-8296-02DB-0FB9-50405270E8BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="457200" y="2674620"/>
+          <a:ext cx="3337560" cy="609013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>If these are not</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> the same, then your system is broken and you are not following the instructions that I have provided. Watch the video provided above.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>93367</xdr:colOff>
+      <xdr:colOff>70507</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>107833</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>71884</xdr:colOff>
+      <xdr:colOff>49024</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>140434</xdr:rowOff>
     </xdr:to>
@@ -853,7 +1010,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="1460068">
-          <a:off x="2089807" y="2165233"/>
+          <a:off x="2066947" y="2180473"/>
           <a:ext cx="1853037" cy="215481"/>
         </a:xfrm>
         <a:prstGeom prst="leftRightArrow">
@@ -1193,164 +1350,175 @@
   <dimension ref="B1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.77734375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="1"/>
+    <col min="2" max="9" width="9.109375" style="1"/>
+    <col min="10" max="10" width="12" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="3"/>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="23"/>
       <c r="D3" s="3"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
     </row>
+    <row r="4" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="2" t="str">
         <f ca="1">INFO("RELEASE")</f>
         <v>16.0</v>
       </c>
+      <c r="H5" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="34"/>
+      <c r="J5" s="35"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C6" s="10" t="s">
+    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="2" t="str">
         <f ca="1">INFO("SYSTEM")</f>
         <v>pcdos</v>
       </c>
+      <c r="H6" s="36"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="38"/>
     </row>
     <row r="7" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="14"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="26">
+      <c r="B9" s="9">
         <v>1</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="5">
         <v>6</v>
       </c>
-      <c r="D9" s="27" cm="1">
+      <c r="D9" s="10" cm="1">
         <f t="array" ref="D9:D14">B9:B14+C9:C14</f>
         <v>7</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="17"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="29"/>
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="28">
+      <c r="B10" s="11">
         <v>2</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="4">
         <v>5</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="12">
         <v>7</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="20"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="32"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="28">
+      <c r="B11" s="11">
         <v>3</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="4">
         <v>4</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="12">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="28">
+      <c r="B12" s="11">
         <v>4</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="4">
         <v>3</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="12">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="28">
+      <c r="B13" s="11">
         <v>5</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="4">
         <v>2</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="12">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="30">
+      <c r="B14" s="13">
         <v>6</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="14">
         <v>1</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="15">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ip6aNTuoDnQlaAaOUCkzALjgfDv3qFn/3GKtH1/0F6PHRf+WRD9/j/H6C5Yxiu9jLdHTa8uOe9wLp1/Ev3UI8A==" saltValue="2zoCUdvQA998gFfefaiVmQ==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="S52s79a3QCxEvsk42kSEq6cexrQoebuK/ZmIV6bcJnBpv/kXFvnsU1/P/impXWOy1xCrDHLPrrBdlhjFwmsBBg==" saltValue="1+XzGH6pO6Khh2P77Cl/cA==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
     <customSheetView guid="{BEACEF35-7F15-4A23-9541-5B70EC08CBDC}">
       <selection activeCell="D7" sqref="D7"/>
@@ -1358,17 +1526,21 @@
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="F8:L10"/>
+    <mergeCell ref="H5:J6"/>
     <mergeCell ref="F2:I3"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F8:L10"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H5:J6" r:id="rId2" display="Watch this video on what is required in terms of technology." xr:uid="{375F516D-E1C3-4AF7-96BE-B20E5717B516}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1652,21 +1824,21 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1690,6 +1862,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C190D257-67B2-4C8E-9431-FB056E46BA28}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A476A232-D581-47C7-B641-3FE381C85E25}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1697,12 +1877,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C190D257-67B2-4C8E-9431-FB056E46BA28}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/144F20/Topic 1/test.xlsx
+++ b/144F20/Topic 1/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="10_ncr:80_{C1963559-702E-48FB-8794-8E8EECCF3F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0476510D-3FB8-4C57-9F42-54664F1C3AA6}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="10_ncr:80_{C1963559-702E-48FB-8794-8E8EECCF3F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A07E7318-4EC9-4934-B98D-CD921A8DCA39}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B059B3D9-69CB-43B5-B54F-5056016079A7}"/>
+    <workbookView xWindow="-110" yWindow="10690" windowWidth="19420" windowHeight="10560" xr2:uid="{B059B3D9-69CB-43B5-B54F-5056016079A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Copy Excel Version:</t>
   </si>
@@ -164,12 +164,21 @@
       <t xml:space="preserve"> on what is required in terms of technology.</t>
     </r>
   </si>
+  <si>
+    <t>Are the two tables the same?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +219,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -237,7 +253,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -568,6 +584,43 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -577,7 +630,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection hidden="1"/>
@@ -637,6 +690,66 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
       <protection hidden="1"/>
@@ -661,72 +774,31 @@
       <alignment horizontal="left" indent="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -754,112 +826,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55FDE63B-8226-47BB-8F40-E262B61FAC67}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1838325" y="581025"/>
-          <a:ext cx="304800" cy="409575"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0683E020-42F5-44DF-81E6-D61AA78EAF17}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1724025" y="800100"/>
-          <a:ext cx="285750" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -869,9 +835,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>425536</xdr:colOff>
+      <xdr:colOff>421726</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>17842</xdr:rowOff>
+      <xdr:rowOff>2602</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1042,6 +1008,66 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>Are these the same?</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>415290</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>186690</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Arrow: Bent-Up 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D6A882B-3F4B-76F3-C9B3-AD2F1846D087}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="1955800" y="311150"/>
+          <a:ext cx="472440" cy="421640"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentUpArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1347,10 +1373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D901B55-C332-4E60-AE58-35F37C520F6E}">
-  <dimension ref="B1:L14"/>
+  <dimension ref="B1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1361,62 +1387,62 @@
     <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="22" t="s">
+    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="3"/>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
     </row>
-    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="22" t="s">
+    <row r="3" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="23"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="3"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="36"/>
     </row>
-    <row r="4" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C5" s="22" t="s">
+    <row r="4" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C5" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="22"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="2" t="str">
         <f ca="1">INFO("RELEASE")</f>
         <v>16.0</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="35"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="27"/>
     </row>
-    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="22" t="s">
+    <row r="6" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="2" t="str">
         <f ca="1">INFO("SYSTEM")</f>
         <v>pcdos</v>
       </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="38"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="30"/>
     </row>
-    <row r="7" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
@@ -1426,17 +1452,17 @@
       <c r="D8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="18"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="9">
         <v>1</v>
       </c>
@@ -1447,15 +1473,15 @@
         <f t="array" ref="D9:D14">B9:B14+C9:C14</f>
         <v>7</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="29"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="21"/>
     </row>
-    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="11">
         <v>2</v>
       </c>
@@ -1465,15 +1491,15 @@
       <c r="D10" s="12">
         <v>7</v>
       </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="32"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="24"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="11">
         <v>3</v>
       </c>
@@ -1484,7 +1510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="11">
         <v>4</v>
       </c>
@@ -1495,7 +1521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="11">
         <v>5</v>
       </c>
@@ -1505,8 +1531,14 @@
       <c r="D13" s="12">
         <v>7</v>
       </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="40"/>
+      <c r="N13" s="41"/>
     </row>
-    <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="13">
         <v>6</v>
       </c>
@@ -1517,8 +1549,21 @@
         <v>7</v>
       </c>
     </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C28" s="42"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C29" s="43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C30" s="43" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="S52s79a3QCxEvsk42kSEq6cexrQoebuK/ZmIV6bcJnBpv/kXFvnsU1/P/impXWOy1xCrDHLPrrBdlhjFwmsBBg==" saltValue="1+XzGH6pO6Khh2P77Cl/cA==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="r7GVaMe0bY+N4favrK+tTWYEiT9mqGHxCuOSuqfrwCFKgXvLRjfPX1vRVGLpHN3sZfX7y6OApjFEPfa1qvMSJg==" saltValue="is+mT0ul7txrVvLZu5cXow==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
     <customSheetView guid="{BEACEF35-7F15-4A23-9541-5B70EC08CBDC}">
       <selection activeCell="D7" sqref="D7"/>
@@ -1526,7 +1571,8 @@
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="L13:N13"/>
     <mergeCell ref="F8:L10"/>
     <mergeCell ref="H5:J6"/>
     <mergeCell ref="F2:I3"/>
@@ -1535,6 +1581,11 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B3:C3"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K13" xr:uid="{5D14105A-F4F3-4A2A-B8C5-8544F0E165E3}">
+      <formula1>$C$29:$C$30</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="H5:J6" r:id="rId2" display="Watch this video on what is required in terms of technology." xr:uid="{375F516D-E1C3-4AF7-96BE-B20E5717B516}"/>
   </hyperlinks>
@@ -1578,6 +1629,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002FC4D7A32A34E94B953742578E0D227D" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74d5d433463613ed438f5c69d02acddb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="d8c16f6f-632d-4fa9-9000-4a0cb55aa11b" xmlns:ns4="6588c10b-b5ed-4e95-9d69-08b9b2ce7055" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="236836fe325cd702c7dfc1167bee4fca" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1823,15 +1883,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1842,6 +1893,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C190D257-67B2-4C8E-9431-FB056E46BA28}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5525EBA8-3762-4CFA-BB48-9EDB60D566EC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1861,14 +1920,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C190D257-67B2-4C8E-9431-FB056E46BA28}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A476A232-D581-47C7-B641-3FE381C85E25}">
   <ds:schemaRefs>

--- a/144F20/Topic 1/test.xlsx
+++ b/144F20/Topic 1/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="10_ncr:80_{C1963559-702E-48FB-8794-8E8EECCF3F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A07E7318-4EC9-4934-B98D-CD921A8DCA39}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="10_ncr:80_{C1963559-702E-48FB-8794-8E8EECCF3F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53BD5249-2F5F-411C-94F9-19EA91558876}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="10690" windowWidth="19420" windowHeight="10560" xr2:uid="{B059B3D9-69CB-43B5-B54F-5056016079A7}"/>
+    <workbookView xWindow="4275" yWindow="4260" windowWidth="21540" windowHeight="11205" xr2:uid="{B059B3D9-69CB-43B5-B54F-5056016079A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Copy Excel Version:</t>
   </si>
@@ -173,6 +173,9 @@
   <si>
     <t>No</t>
   </si>
+  <si>
+    <t>E5:E6 will not work with online Excel, but the check on the table below still should work. If not, you are not logged in correctly.</t>
+  </si>
 </sst>
 </file>
 
@@ -630,7 +633,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection hidden="1"/>
@@ -690,6 +693,25 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
       <protection hidden="1"/>
@@ -782,23 +804,44 @@
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -835,7 +878,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>421726</xdr:colOff>
+      <xdr:colOff>126451</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>2602</xdr:rowOff>
     </xdr:to>
@@ -1071,6 +1114,116 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19052</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19048</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Connector: Elbow 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20A73C04-A49A-0F75-B326-BB44337AED8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="2571752" y="714375"/>
+          <a:ext cx="3448048" cy="304798"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 86464"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66671</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>57152</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Connector: Elbow 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF600EAA-3B46-DC56-D461-DED174558F1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5400676" y="666746"/>
+          <a:ext cx="3181351" cy="1657353"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -8383"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1373,76 +1526,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D901B55-C332-4E60-AE58-35F37C520F6E}">
-  <dimension ref="B1:N30"/>
+  <dimension ref="B1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.77734375" style="1" customWidth="1"/>
-    <col min="2" max="9" width="9.109375" style="1"/>
+    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
+    <col min="2" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="37" t="s">
+    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="43"/>
       <c r="D2" s="3"/>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="33"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="38"/>
+      <c r="K2" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
     </row>
-    <row r="3" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="37" t="s">
+    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="38"/>
+      <c r="C3" s="43"/>
       <c r="D3" s="3"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="36"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
     </row>
-    <row r="4" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C5" s="37" t="s">
+    <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K4" s="48"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="50"/>
+    </row>
+    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="37"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="2" t="str">
         <f ca="1">INFO("RELEASE")</f>
         <v>16.0</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="G5" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="27"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="32"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="53"/>
     </row>
-    <row r="6" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="37" t="s">
+    <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="37"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="2" t="str">
         <f ca="1">INFO("SYSTEM")</f>
         <v>pcdos</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="30"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="35"/>
     </row>
-    <row r="7" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
@@ -1452,17 +1629,17 @@
       <c r="D8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="18"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="9">
         <v>1</v>
       </c>
@@ -1473,15 +1650,15 @@
         <f t="array" ref="D9:D14">B9:B14+C9:C14</f>
         <v>7</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="21"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
     </row>
-    <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="11">
         <v>2</v>
       </c>
@@ -1491,15 +1668,15 @@
       <c r="D10" s="12">
         <v>7</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="29"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="11">
         <v>3</v>
       </c>
@@ -1510,7 +1687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="11">
         <v>4</v>
       </c>
@@ -1521,7 +1698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="11">
         <v>5</v>
       </c>
@@ -1532,13 +1709,13 @@
         <v>7</v>
       </c>
       <c r="K13" s="3"/>
-      <c r="L13" s="39" t="s">
+      <c r="L13" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="M13" s="40"/>
-      <c r="N13" s="41"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="20"/>
     </row>
-    <row r="14" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13">
         <v>6</v>
       </c>
@@ -1549,21 +1726,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C28" s="42"/>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="16"/>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C29" s="43" t="s">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C30" s="43" t="s">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="17" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="r7GVaMe0bY+N4favrK+tTWYEiT9mqGHxCuOSuqfrwCFKgXvLRjfPX1vRVGLpHN3sZfX7y6OApjFEPfa1qvMSJg==" saltValue="is+mT0ul7txrVvLZu5cXow==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
     <customSheetView guid="{BEACEF35-7F15-4A23-9541-5B70EC08CBDC}">
       <selection activeCell="D7" sqref="D7"/>
@@ -1571,15 +1748,16 @@
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="L13:N13"/>
     <mergeCell ref="F8:L10"/>
-    <mergeCell ref="H5:J6"/>
+    <mergeCell ref="G5:I6"/>
     <mergeCell ref="F2:I3"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B3:C3"/>
+    <mergeCell ref="K2:N5"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K13" xr:uid="{5D14105A-F4F3-4A2A-B8C5-8544F0E165E3}">
@@ -1587,7 +1765,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H5:J6" r:id="rId2" display="Watch this video on what is required in terms of technology." xr:uid="{375F516D-E1C3-4AF7-96BE-B20E5717B516}"/>
+    <hyperlink ref="G5:I6" r:id="rId2" display="Watch this video on what is required in terms of technology." xr:uid="{375F516D-E1C3-4AF7-96BE-B20E5717B516}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1603,15 +1781,15 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="b">
         <f ca="1">OR(ISERR(Test!$E$5),ISERR(Test!$E$6),Test!$E$5&lt;16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f ca="1">IF(A1,"You are not using current Excel from MS Office 365 or you are using a Chromebook.","Your system looks good!")</f>
         <v>Your system looks good!</v>
@@ -1629,12 +1807,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1884,18 +2062,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C190D257-67B2-4C8E-9431-FB056E46BA28}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A476A232-D581-47C7-B641-3FE381C85E25}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1921,11 +2101,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A476A232-D581-47C7-B641-3FE381C85E25}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C190D257-67B2-4C8E-9431-FB056E46BA28}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>